--- a/webapp/Files/upload/zijinqixianbiao.xlsx
+++ b/webapp/Files/upload/zijinqixianbiao.xlsx
@@ -3174,7 +3174,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>+|</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
@@ -3191,28 +3191,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>现金；国债</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>朱张婷：证券</t>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆轶凡：现金</t>
     </r>
     <r>
       <rPr>
@@ -3220,16 +3208,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陆轶凡：证券</t>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆轶凡：国债</t>
     </r>
     <r>
       <rPr>
@@ -3237,16 +3225,31 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陆轶凡：现金</t>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吴玉姝：股票</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>|(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朱张婷：证券</t>
     </r>
     <r>
       <rPr>
@@ -3254,16 +3257,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陆轶凡：国债</t>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆轶凡：证券</t>
     </r>
     <r>
       <rPr>
@@ -3271,16 +3274,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吴玉姝：股票</t>
+      <t>)*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吴玉姝：国债</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3303,16 +3306,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>+|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陆轶凡：证券</t>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（陆轶凡：现金</t>
     </r>
     <r>
       <rPr>
@@ -3320,16 +3323,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>现金</t>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吴玉姝：国债</t>
     </r>
     <r>
       <rPr>
@@ -3337,16 +3340,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吴玉姝：国债</t>
+      <t>)/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆轶凡：证券</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4808,7 +4811,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5023,7 +5026,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D12" s="34">
         <v>1</v>
@@ -5047,7 +5050,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D13" s="34">
         <v>1</v>

--- a/webapp/Files/upload/zijinqixianbiao.xlsx
+++ b/webapp/Files/upload/zijinqixianbiao.xlsx
@@ -3306,16 +3306,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（陆轶凡：现金</t>
+      <t>+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆轶凡：现金</t>
     </r>
     <r>
       <rPr>
@@ -3358,11 +3358,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
     <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -4004,7 +4005,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4491,6 +4492,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4811,7 +4824,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5004,7 +5017,7 @@
       <c r="B11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="125">
         <f>SUM(C12:C15)</f>
         <v>0</v>
       </c>
@@ -5025,7 +5038,7 @@
       <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="127" t="s">
         <v>294</v>
       </c>
       <c r="D12" s="34">
@@ -5169,7 +5182,7 @@
       <c r="B18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="126">
         <f>SUM(C19:C21,C27)</f>
         <v>0</v>
       </c>
